--- a/medicine/Enfance/Jacques_Vettier/Jacques_Vettier.xlsx
+++ b/medicine/Enfance/Jacques_Vettier/Jacques_Vettier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Vettier, né le 8 décembre 1959 à Pontcharra en Isère, est un écrivain français, auteur de roman policier.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de technologie et d'économie à Grenoble, puis travaille dans le monde de la moto et de l'automobile.
-En 1994, il publie son premier roman, Juge et Partie, premier volume d'une trilogie consacrée à Carole Ménani, magistrate. En 1997, ce roman est adapté à la télévision sous le titre éponyme dans une réalisation de Jacques Malaterre. Selon le Dictionnaire des littératures policières, « les romans de Jacques Vettier sont plein de compassion pour les êtres fragiles et remplis d'admiration envers ceux qui se battent, souvent de remarquables personnages féminins »[1].
-En 1999, il fait paraître Nécroprocesseurs, « une autre de ses grandes réussites »[1], qui obtient le prix Sang d'encre.
+En 1994, il publie son premier roman, Juge et Partie, premier volume d'une trilogie consacrée à Carole Ménani, magistrate. En 1997, ce roman est adapté à la télévision sous le titre éponyme dans une réalisation de Jacques Malaterre. Selon le Dictionnaire des littératures policières, « les romans de Jacques Vettier sont plein de compassion pour les êtres fragiles et remplis d'admiration envers ceux qui se battent, souvent de remarquables personnages féminins ».
+En 1999, il fait paraître Nécroprocesseurs, « une autre de ses grandes réussites », qui obtient le prix Sang d'encre.
 </t>
         </is>
       </c>
@@ -546,22 +560,170 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Carole Ménani
-Juge et Partie, Métailié, coll. « Troubles » (1994)  (ISBN 2-86424-187-0), réédition Métailié, coll. « Policier » no 2 (1998)  (ISBN 2-86424-269-9)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Carole Ménani</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Juge et Partie, Métailié, coll. « Troubles » (1994)  (ISBN 2-86424-187-0), réédition Métailié, coll. « Policier » no 2 (1998)  (ISBN 2-86424-269-9)
 Tueuse sans gages, Métailié, coll. « Troubles » (1996)  (ISBN 2-86424-216-8)
-Le Rendez-vous de Barbuda, Métailié, coll. « Troubles » (1997)  (ISBN 2-86424-244-3)
-Autres romans
-La Petite Marchande de doses Éditions Baleine, coll. « Le Poulpe » (1998)  (ISBN 2-84219-160-9)
+Le Rendez-vous de Barbuda, Métailié, coll. « Troubles » (1997)  (ISBN 2-86424-244-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Vettier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Vettier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Petite Marchande de doses Éditions Baleine, coll. « Le Poulpe » (1998)  (ISBN 2-84219-160-9)
 Sous les nuées vertes Éditions Baleine, coll. « Macno » no 12 (1999)  (ISBN 2-84219-207-9)
 Nécroprocesseurs, Métailié, coll. « Noir » no 11 (1999)  (ISBN 2-86424-309-1), réédition France Loisirs, coll. « Piment » (2000)  (ISBN 2-7441-3619-0)
-Toutes les îles sont bleues, Zulma, coll. « Quatre-bis » (2002)  (ISBN 2-84304-231-3)
-Littérature d'enfance et de jeunesse
-Plongée fatale, Éditions Albin Michel, coll. « Le Furet enquête » no 17 (1999)  (ISBN 2-226-11230-8)
-Recueil de nouvelles
-Avès Sotavento, Largo éditions, coll. « Bleu nuit » (1999)  (ISBN 2-913455-02-6), réédition Éditions Baleine, coll. « Instantanés de polar » (2001)  (ISBN 2-84219-316-4)
-Nouvelles
-Les Feux de l'amour, dans l'anthologie Du lit au ciel, Luce Wilquin, coll. « Noir pastel » (1997), réédition dans le recueil Avès Sotavento
+Toutes les îles sont bleues, Zulma, coll. « Quatre-bis » (2002)  (ISBN 2-84304-231-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Vettier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Vettier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Plongée fatale, Éditions Albin Michel, coll. « Le Furet enquête » no 17 (1999)  (ISBN 2-226-11230-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacques_Vettier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Vettier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Avès Sotavento, Largo éditions, coll. « Bleu nuit » (1999)  (ISBN 2-913455-02-6), réédition Éditions Baleine, coll. « Instantanés de polar » (2001)  (ISBN 2-84219-316-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jacques_Vettier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Vettier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Feux de l'amour, dans l'anthologie Du lit au ciel, Luce Wilquin, coll. « Noir pastel » (1997), réédition dans le recueil Avès Sotavento
 Avoir un bon métier, dans la revue 813 no 62 (mars 1998), réédition dans le recueil Avès Sotavento
 Pas le droit !, dans la revue Lignes noires spéciale festival 1999, Horizons noirs (1999)
 Avès Sotavento, dans le recueil Avès Sotavento
@@ -576,62 +738,69 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jacques_Vettier</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jacques_Vettier</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>À la télévision
-1997 Juge et Partie, téléfilm français réalisé par Jacques Malaterre, adaptation du roman éponyme</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1997 Juge et Partie, téléfilm français réalisé par Jacques Malaterre, adaptation du roman éponyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Jacques_Vettier</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jacques_Vettier</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Prix Sang d'encre 1999 pour Nécroprocesseurs</t>
         </is>
